--- a/data/pca/factorExposure/factorExposure_2012-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-20.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01683968632357756</v>
+        <v>-0.01667293376932659</v>
       </c>
       <c r="C2">
-        <v>0.03556053664036046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02921753906495925</v>
+      </c>
+      <c r="D2">
+        <v>-0.003122748548821951</v>
+      </c>
+      <c r="E2">
+        <v>-0.009872949932191162</v>
+      </c>
+      <c r="F2">
+        <v>0.0108662931045023</v>
+      </c>
+      <c r="G2">
+        <v>0.002123352113560995</v>
+      </c>
+      <c r="H2">
+        <v>-0.05546389831864616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07545969164938246</v>
+        <v>-0.08681175939017567</v>
       </c>
       <c r="C4">
-        <v>0.0549407490767528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03765573723294194</v>
+      </c>
+      <c r="D4">
+        <v>-0.06807851136047857</v>
+      </c>
+      <c r="E4">
+        <v>-0.01024330642705994</v>
+      </c>
+      <c r="F4">
+        <v>0.03027083311860647</v>
+      </c>
+      <c r="G4">
+        <v>0.009130717363281601</v>
+      </c>
+      <c r="H4">
+        <v>0.05046994370531727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1066387459388146</v>
+        <v>-0.1187306901335455</v>
       </c>
       <c r="C6">
-        <v>0.05510725574202636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.0326798471858946</v>
+      </c>
+      <c r="D6">
+        <v>-0.01241439250390131</v>
+      </c>
+      <c r="E6">
+        <v>0.01062155817969678</v>
+      </c>
+      <c r="F6">
+        <v>0.05990699176941022</v>
+      </c>
+      <c r="G6">
+        <v>0.02051305707945127</v>
+      </c>
+      <c r="H6">
+        <v>-0.08089205938165761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04997751235220899</v>
+        <v>-0.06313155512779582</v>
       </c>
       <c r="C7">
-        <v>0.02800790056653657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01877109597549294</v>
+      </c>
+      <c r="D7">
+        <v>-0.04505387666444256</v>
+      </c>
+      <c r="E7">
+        <v>-0.0270249088628179</v>
+      </c>
+      <c r="F7">
+        <v>0.04240341849718528</v>
+      </c>
+      <c r="G7">
+        <v>-0.03878251795270543</v>
+      </c>
+      <c r="H7">
+        <v>0.02755507159989395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0359906276969711</v>
+        <v>-0.04060525991346924</v>
       </c>
       <c r="C8">
-        <v>0.01154787888568849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007671227218903238</v>
+      </c>
+      <c r="D8">
+        <v>-0.0291192633136402</v>
+      </c>
+      <c r="E8">
+        <v>-0.03081351413541243</v>
+      </c>
+      <c r="F8">
+        <v>0.04290601285752828</v>
+      </c>
+      <c r="G8">
+        <v>0.0411741088375299</v>
+      </c>
+      <c r="H8">
+        <v>0.01375512331930073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06830346545746183</v>
+        <v>-0.07796663811662231</v>
       </c>
       <c r="C9">
-        <v>0.04499066506102446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02841342127028498</v>
+      </c>
+      <c r="D9">
+        <v>-0.06304369295386657</v>
+      </c>
+      <c r="E9">
+        <v>-0.02983660387973052</v>
+      </c>
+      <c r="F9">
+        <v>0.03633892242798658</v>
+      </c>
+      <c r="G9">
+        <v>0.01158340370214425</v>
+      </c>
+      <c r="H9">
+        <v>0.06156471945464512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02871063236248181</v>
+        <v>-0.03589258395969457</v>
       </c>
       <c r="C10">
-        <v>0.03390024361136773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04313709664510579</v>
+      </c>
+      <c r="D10">
+        <v>0.1722614347914732</v>
+      </c>
+      <c r="E10">
+        <v>-0.04665132297765874</v>
+      </c>
+      <c r="F10">
+        <v>0.04880482765467026</v>
+      </c>
+      <c r="G10">
+        <v>-0.04015612434204685</v>
+      </c>
+      <c r="H10">
+        <v>-0.03250505411995717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07130942112909593</v>
+        <v>-0.07619039155324399</v>
       </c>
       <c r="C11">
-        <v>0.04661383047529945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0258912292507076</v>
+      </c>
+      <c r="D11">
+        <v>-0.06228049870425804</v>
+      </c>
+      <c r="E11">
+        <v>0.009324372949822366</v>
+      </c>
+      <c r="F11">
+        <v>0.024159781937838</v>
+      </c>
+      <c r="G11">
+        <v>0.001450641481250997</v>
+      </c>
+      <c r="H11">
+        <v>0.09747672454226997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05738468659758229</v>
+        <v>-0.06541708120138036</v>
       </c>
       <c r="C12">
-        <v>0.0503064326754992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03419584452477436</v>
+      </c>
+      <c r="D12">
+        <v>-0.04968185967610135</v>
+      </c>
+      <c r="E12">
+        <v>-0.00980238020402923</v>
+      </c>
+      <c r="F12">
+        <v>0.01920255897811562</v>
+      </c>
+      <c r="G12">
+        <v>0.003366817374920897</v>
+      </c>
+      <c r="H12">
+        <v>0.059015687162452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06084427379420242</v>
+        <v>-0.06599729437856482</v>
       </c>
       <c r="C13">
-        <v>0.04195463969243888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02553563603177157</v>
+      </c>
+      <c r="D13">
+        <v>-0.04382163638856463</v>
+      </c>
+      <c r="E13">
+        <v>-0.01081055828655651</v>
+      </c>
+      <c r="F13">
+        <v>0.003897035783918608</v>
+      </c>
+      <c r="G13">
+        <v>0.000971822736762284</v>
+      </c>
+      <c r="H13">
+        <v>0.06570526349699515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03278450051611436</v>
+        <v>-0.0405827031389242</v>
       </c>
       <c r="C14">
-        <v>0.03086843003931609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0266049788534841</v>
+      </c>
+      <c r="D14">
+        <v>-0.004407827439455362</v>
+      </c>
+      <c r="E14">
+        <v>-0.02442062947187299</v>
+      </c>
+      <c r="F14">
+        <v>0.01738063439641889</v>
+      </c>
+      <c r="G14">
+        <v>0.01782073714337496</v>
+      </c>
+      <c r="H14">
+        <v>0.05767097476215331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03897676084227995</v>
+        <v>-0.03951986210136189</v>
       </c>
       <c r="C15">
-        <v>0.01133027724161827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003184698120440811</v>
+      </c>
+      <c r="D15">
+        <v>-0.005776626296385255</v>
+      </c>
+      <c r="E15">
+        <v>-0.04335803861616787</v>
+      </c>
+      <c r="F15">
+        <v>-0.001785861831843844</v>
+      </c>
+      <c r="G15">
+        <v>0.02612125565467307</v>
+      </c>
+      <c r="H15">
+        <v>0.04469326186344602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0607944483900142</v>
+        <v>-0.06918167258435044</v>
       </c>
       <c r="C16">
-        <v>0.04248431487124552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02634161795587435</v>
+      </c>
+      <c r="D16">
+        <v>-0.06245600597994517</v>
+      </c>
+      <c r="E16">
+        <v>-0.001878066196581169</v>
+      </c>
+      <c r="F16">
+        <v>0.02434052826014772</v>
+      </c>
+      <c r="G16">
+        <v>-0.0007675180348846984</v>
+      </c>
+      <c r="H16">
+        <v>0.06075794342636093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06456029167208659</v>
+        <v>-0.06435156603823863</v>
       </c>
       <c r="C20">
-        <v>0.0325380979235491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01422691355620761</v>
+      </c>
+      <c r="D20">
+        <v>-0.04132383532502747</v>
+      </c>
+      <c r="E20">
+        <v>-0.0294255162766932</v>
+      </c>
+      <c r="F20">
+        <v>0.0193505515247823</v>
+      </c>
+      <c r="G20">
+        <v>0.01171034699840098</v>
+      </c>
+      <c r="H20">
+        <v>0.06401010532619505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02379551177909458</v>
+        <v>-0.02291505385563495</v>
       </c>
       <c r="C21">
-        <v>-0.005389205551102725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01359349504286851</v>
+      </c>
+      <c r="D21">
+        <v>-0.03895095780730282</v>
+      </c>
+      <c r="E21">
+        <v>-0.0686633338454069</v>
+      </c>
+      <c r="F21">
+        <v>-0.02069963494927138</v>
+      </c>
+      <c r="G21">
+        <v>0.008252307112284529</v>
+      </c>
+      <c r="H21">
+        <v>-0.04748205372181716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0733608652129159</v>
+        <v>-0.06627908091765261</v>
       </c>
       <c r="C22">
-        <v>0.06153514902366868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03724217927406371</v>
+      </c>
+      <c r="D22">
+        <v>-0.08493125675752784</v>
+      </c>
+      <c r="E22">
+        <v>-0.6031642495627408</v>
+      </c>
+      <c r="F22">
+        <v>-0.1661095731378731</v>
+      </c>
+      <c r="G22">
+        <v>-0.05359867114564819</v>
+      </c>
+      <c r="H22">
+        <v>-0.1726407854581713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07433828122619522</v>
+        <v>-0.06688395949725413</v>
       </c>
       <c r="C23">
-        <v>0.06046443322463273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03594914009485788</v>
+      </c>
+      <c r="D23">
+        <v>-0.08589706946433034</v>
+      </c>
+      <c r="E23">
+        <v>-0.6025757731752689</v>
+      </c>
+      <c r="F23">
+        <v>-0.1652403680472426</v>
+      </c>
+      <c r="G23">
+        <v>-0.05174342668695269</v>
+      </c>
+      <c r="H23">
+        <v>-0.1684709870714197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06970725523702032</v>
+        <v>-0.07890040083569863</v>
       </c>
       <c r="C24">
-        <v>0.05015752689414481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03202600799418147</v>
+      </c>
+      <c r="D24">
+        <v>-0.0599521837613121</v>
+      </c>
+      <c r="E24">
+        <v>-0.01106077293936808</v>
+      </c>
+      <c r="F24">
+        <v>0.03282264329295119</v>
+      </c>
+      <c r="G24">
+        <v>0.009997699024122874</v>
+      </c>
+      <c r="H24">
+        <v>0.07016841251036521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07053651491092533</v>
+        <v>-0.07705856237882616</v>
       </c>
       <c r="C25">
-        <v>0.05612421297507143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03657380109040734</v>
+      </c>
+      <c r="D25">
+        <v>-0.0534810258078522</v>
+      </c>
+      <c r="E25">
+        <v>-0.01280794907811683</v>
+      </c>
+      <c r="F25">
+        <v>0.02715995062676045</v>
+      </c>
+      <c r="G25">
+        <v>0.02106894125058622</v>
+      </c>
+      <c r="H25">
+        <v>0.07296291387676722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04583683065891316</v>
+        <v>-0.04734671977349717</v>
       </c>
       <c r="C26">
-        <v>0.01026981995559503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0009896895242482095</v>
+      </c>
+      <c r="D26">
+        <v>-0.01996923249067292</v>
+      </c>
+      <c r="E26">
+        <v>-0.04291281930427012</v>
+      </c>
+      <c r="F26">
+        <v>0.0229551175815862</v>
+      </c>
+      <c r="G26">
+        <v>-0.0009241723074183115</v>
+      </c>
+      <c r="H26">
+        <v>0.06227565444659976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05690229643846895</v>
+        <v>-0.06824787120879351</v>
       </c>
       <c r="C28">
-        <v>0.07376369245896211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08557913170926412</v>
+      </c>
+      <c r="D28">
+        <v>0.3084795248932148</v>
+      </c>
+      <c r="E28">
+        <v>-0.03205616948579491</v>
+      </c>
+      <c r="F28">
+        <v>0.0549630394232516</v>
+      </c>
+      <c r="G28">
+        <v>0.02245674227015778</v>
+      </c>
+      <c r="H28">
+        <v>-0.03965515213496069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04115417500796119</v>
+        <v>-0.04813157208737088</v>
       </c>
       <c r="C29">
-        <v>0.03161252744035046</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02455198434395381</v>
+      </c>
+      <c r="D29">
+        <v>-0.005079422074203447</v>
+      </c>
+      <c r="E29">
+        <v>-0.04839833847333317</v>
+      </c>
+      <c r="F29">
+        <v>0.005649360938324834</v>
+      </c>
+      <c r="G29">
+        <v>0.0004108350056173623</v>
+      </c>
+      <c r="H29">
+        <v>0.08267700936716826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1249770738207587</v>
+        <v>-0.1320878870089914</v>
       </c>
       <c r="C30">
-        <v>0.09424051826700246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06313128974711298</v>
+      </c>
+      <c r="D30">
+        <v>-0.07348511203429432</v>
+      </c>
+      <c r="E30">
+        <v>-0.07780646819819112</v>
+      </c>
+      <c r="F30">
+        <v>-0.004588327220168243</v>
+      </c>
+      <c r="G30">
+        <v>0.06254929078965887</v>
+      </c>
+      <c r="H30">
+        <v>-0.01002615792030934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04230984395475398</v>
+        <v>-0.04825050793944345</v>
       </c>
       <c r="C31">
-        <v>0.01957295202481495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01078980596606832</v>
+      </c>
+      <c r="D31">
+        <v>-0.02502580362610268</v>
+      </c>
+      <c r="E31">
+        <v>-0.0254231097249656</v>
+      </c>
+      <c r="F31">
+        <v>0.01475964443530296</v>
+      </c>
+      <c r="G31">
+        <v>-0.01726057018507569</v>
+      </c>
+      <c r="H31">
+        <v>0.0726416093428935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03769827113484085</v>
+        <v>-0.03736247824087631</v>
       </c>
       <c r="C32">
-        <v>0.02194344807282234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0148831778294694</v>
+      </c>
+      <c r="D32">
+        <v>-0.008846197782561436</v>
+      </c>
+      <c r="E32">
+        <v>-0.06752674791774023</v>
+      </c>
+      <c r="F32">
+        <v>-0.004084821218845721</v>
+      </c>
+      <c r="G32">
+        <v>0.03978624438647555</v>
+      </c>
+      <c r="H32">
+        <v>0.06850703345500035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0808882405590948</v>
+        <v>-0.09371950351287514</v>
       </c>
       <c r="C33">
-        <v>0.0434348200774909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.0255666885290619</v>
+      </c>
+      <c r="D33">
+        <v>-0.05289926339458323</v>
+      </c>
+      <c r="E33">
+        <v>-0.01715834318129631</v>
+      </c>
+      <c r="F33">
+        <v>0.0009083058536528399</v>
+      </c>
+      <c r="G33">
+        <v>-0.008005031722583697</v>
+      </c>
+      <c r="H33">
+        <v>0.0754147414245385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05543546946971697</v>
+        <v>-0.06051669909621452</v>
       </c>
       <c r="C34">
-        <v>0.02783301649277857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01208436586866053</v>
+      </c>
+      <c r="D34">
+        <v>-0.05365897224742054</v>
+      </c>
+      <c r="E34">
+        <v>-0.003708768318424923</v>
+      </c>
+      <c r="F34">
+        <v>0.01588147460929136</v>
+      </c>
+      <c r="G34">
+        <v>0.008747065440334009</v>
+      </c>
+      <c r="H34">
+        <v>0.06028854136584796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03730478551035447</v>
+        <v>-0.04063894828279262</v>
       </c>
       <c r="C35">
-        <v>0.00892996050094314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.00194140611036836</v>
+      </c>
+      <c r="D35">
+        <v>-0.006691406246934879</v>
+      </c>
+      <c r="E35">
+        <v>-0.02191544811578928</v>
+      </c>
+      <c r="F35">
+        <v>-0.01069118376670158</v>
+      </c>
+      <c r="G35">
+        <v>-0.008135173999309801</v>
+      </c>
+      <c r="H35">
+        <v>0.03826194550334686</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02039007083073069</v>
+        <v>-0.02652671132516452</v>
       </c>
       <c r="C36">
-        <v>0.01707710376147137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01311807783272526</v>
+      </c>
+      <c r="D36">
+        <v>-0.01355076529559238</v>
+      </c>
+      <c r="E36">
+        <v>-0.04179792777063036</v>
+      </c>
+      <c r="F36">
+        <v>0.01774274684451512</v>
+      </c>
+      <c r="G36">
+        <v>-0.006096356740483738</v>
+      </c>
+      <c r="H36">
+        <v>0.05617629603737462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04051624896404524</v>
+        <v>-0.04352952214482741</v>
       </c>
       <c r="C38">
-        <v>0.003959643858134772</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002836638562989843</v>
+      </c>
+      <c r="D38">
+        <v>-0.01703574951812205</v>
+      </c>
+      <c r="E38">
+        <v>-0.05511899659700111</v>
+      </c>
+      <c r="F38">
+        <v>-0.01231748383213991</v>
+      </c>
+      <c r="G38">
+        <v>0.01266510629279853</v>
+      </c>
+      <c r="H38">
+        <v>0.02740427213510189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09416029899363867</v>
+        <v>-0.1048032293738084</v>
       </c>
       <c r="C39">
-        <v>0.07418702338932757</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04997841690242378</v>
+      </c>
+      <c r="D39">
+        <v>-0.06517835505745538</v>
+      </c>
+      <c r="E39">
+        <v>-0.0002207121544245033</v>
+      </c>
+      <c r="F39">
+        <v>0.007847378904840333</v>
+      </c>
+      <c r="G39">
+        <v>0.03918709278792268</v>
+      </c>
+      <c r="H39">
+        <v>0.07033905844393835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07253127684809516</v>
+        <v>-0.07168334487355002</v>
       </c>
       <c r="C40">
-        <v>0.04054691116035015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.02053339605964932</v>
+      </c>
+      <c r="D40">
+        <v>-0.005776321432169635</v>
+      </c>
+      <c r="E40">
+        <v>-0.02061926377085443</v>
+      </c>
+      <c r="F40">
+        <v>-0.05253485509942893</v>
+      </c>
+      <c r="G40">
+        <v>0.04223802423634807</v>
+      </c>
+      <c r="H40">
+        <v>-0.05193804070383634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04024241755664227</v>
+        <v>-0.04417471034847167</v>
       </c>
       <c r="C41">
-        <v>0.006375583357577362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001262220504762186</v>
+      </c>
+      <c r="D41">
+        <v>-0.0356487719022183</v>
+      </c>
+      <c r="E41">
+        <v>-0.008335128177854626</v>
+      </c>
+      <c r="F41">
+        <v>-0.01205477947263445</v>
+      </c>
+      <c r="G41">
+        <v>0.01395635198658866</v>
+      </c>
+      <c r="H41">
+        <v>0.03735594831743915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04655134140377754</v>
+        <v>-0.05686607417319911</v>
       </c>
       <c r="C43">
-        <v>0.02560635771508309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01635431495359058</v>
+      </c>
+      <c r="D43">
+        <v>-0.02750296931579914</v>
+      </c>
+      <c r="E43">
+        <v>-0.01313424778395063</v>
+      </c>
+      <c r="F43">
+        <v>0.01326436067256787</v>
+      </c>
+      <c r="G43">
+        <v>-0.006858381955479191</v>
+      </c>
+      <c r="H43">
+        <v>0.05138101804742939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09473641795520371</v>
+        <v>-0.09259387234921478</v>
       </c>
       <c r="C44">
-        <v>0.09511485111426032</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.0632158943699667</v>
+      </c>
+      <c r="D44">
+        <v>-0.06635094034877909</v>
+      </c>
+      <c r="E44">
+        <v>-0.08312431296427333</v>
+      </c>
+      <c r="F44">
+        <v>0.04942296819587341</v>
+      </c>
+      <c r="G44">
+        <v>0.02475575183079451</v>
+      </c>
+      <c r="H44">
+        <v>0.02594013750536934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02473577925683699</v>
+        <v>-0.03156852818558172</v>
       </c>
       <c r="C46">
-        <v>0.01288200655118951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008911339452816863</v>
+      </c>
+      <c r="D46">
+        <v>-0.03281112862353546</v>
+      </c>
+      <c r="E46">
+        <v>-0.02284031463910104</v>
+      </c>
+      <c r="F46">
+        <v>0.01750755593952443</v>
+      </c>
+      <c r="G46">
+        <v>0.008172274494268071</v>
+      </c>
+      <c r="H46">
+        <v>0.03875693969647855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02740667217962666</v>
+        <v>-0.03591030387028291</v>
       </c>
       <c r="C47">
-        <v>0.02499630468396621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0201957124973347</v>
+      </c>
+      <c r="D47">
+        <v>-0.0170849417884842</v>
+      </c>
+      <c r="E47">
+        <v>-0.0488857449115768</v>
+      </c>
+      <c r="F47">
+        <v>0.01520520264596953</v>
+      </c>
+      <c r="G47">
+        <v>-0.04038503451875115</v>
+      </c>
+      <c r="H47">
+        <v>0.02982624996339536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03117987732560284</v>
+        <v>-0.03669383330226412</v>
       </c>
       <c r="C48">
-        <v>0.01568523558635904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.009348648296000834</v>
+      </c>
+      <c r="D48">
+        <v>-0.02061967822868439</v>
+      </c>
+      <c r="E48">
+        <v>-0.04702668783467537</v>
+      </c>
+      <c r="F48">
+        <v>0.002153589525969488</v>
+      </c>
+      <c r="G48">
+        <v>0.01270358540505498</v>
+      </c>
+      <c r="H48">
+        <v>0.05531041188391156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1622343844134685</v>
+        <v>-0.1915168816691358</v>
       </c>
       <c r="C49">
-        <v>0.06445193299528224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03633310934509314</v>
+      </c>
+      <c r="D49">
+        <v>-0.02830979613719414</v>
+      </c>
+      <c r="E49">
+        <v>0.1377520656951274</v>
+      </c>
+      <c r="F49">
+        <v>0.05953129505586781</v>
+      </c>
+      <c r="G49">
+        <v>-0.07325553990002139</v>
+      </c>
+      <c r="H49">
+        <v>-0.2215945235572413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03727338024950408</v>
+        <v>-0.04392023193524375</v>
       </c>
       <c r="C50">
-        <v>0.02272828710738645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01531305743526598</v>
+      </c>
+      <c r="D50">
+        <v>-0.03267252567470274</v>
+      </c>
+      <c r="E50">
+        <v>-0.0503531500823951</v>
+      </c>
+      <c r="F50">
+        <v>0.01464789114883816</v>
+      </c>
+      <c r="G50">
+        <v>-0.01319637401065618</v>
+      </c>
+      <c r="H50">
+        <v>0.06838126971068761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0261075072707747</v>
+        <v>-0.02885101207239924</v>
       </c>
       <c r="C51">
-        <v>0.01047182864484972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.005880607526889317</v>
+      </c>
+      <c r="D51">
+        <v>-0.02244623899086013</v>
+      </c>
+      <c r="E51">
+        <v>-0.01460265157608048</v>
+      </c>
+      <c r="F51">
+        <v>0.01242187099371299</v>
+      </c>
+      <c r="G51">
+        <v>0.002303480295690726</v>
+      </c>
+      <c r="H51">
+        <v>-0.003408752861146564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1514937601364077</v>
+        <v>-0.1621553779481464</v>
       </c>
       <c r="C53">
-        <v>0.08292095341571673</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05255353171560465</v>
+      </c>
+      <c r="D53">
+        <v>-0.02107262117938338</v>
+      </c>
+      <c r="E53">
+        <v>0.03172017358612552</v>
+      </c>
+      <c r="F53">
+        <v>0.01325865856250594</v>
+      </c>
+      <c r="G53">
+        <v>0.007058422824945928</v>
+      </c>
+      <c r="H53">
+        <v>0.1387504280130098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0555528651487394</v>
+        <v>-0.05685600536303647</v>
       </c>
       <c r="C54">
-        <v>0.02429186183142784</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01128781055424098</v>
+      </c>
+      <c r="D54">
+        <v>-0.01942254163470263</v>
+      </c>
+      <c r="E54">
+        <v>-0.04751836651697345</v>
+      </c>
+      <c r="F54">
+        <v>0.008536650065421992</v>
+      </c>
+      <c r="G54">
+        <v>0.0175085779386651</v>
+      </c>
+      <c r="H54">
+        <v>0.06674784469062781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09924514378269896</v>
+        <v>-0.1030792339182401</v>
       </c>
       <c r="C55">
-        <v>0.05705441493414782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03586312200710753</v>
+      </c>
+      <c r="D55">
+        <v>-0.02566551830984014</v>
+      </c>
+      <c r="E55">
+        <v>-0.011198637328515</v>
+      </c>
+      <c r="F55">
+        <v>0.01524815816785251</v>
+      </c>
+      <c r="G55">
+        <v>0.0160593054829924</v>
+      </c>
+      <c r="H55">
+        <v>0.1404148233803495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1469156686847316</v>
+        <v>-0.1597051479303044</v>
       </c>
       <c r="C56">
-        <v>0.09392667970718709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.063627863841864</v>
+      </c>
+      <c r="D56">
+        <v>-0.02007223765049614</v>
+      </c>
+      <c r="E56">
+        <v>0.03650373857220519</v>
+      </c>
+      <c r="F56">
+        <v>0.02937603882647608</v>
+      </c>
+      <c r="G56">
+        <v>0.001507827469909413</v>
+      </c>
+      <c r="H56">
+        <v>0.1472363284698048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1204063749612739</v>
+        <v>-0.09756223949077386</v>
       </c>
       <c r="C58">
-        <v>0.004909431960238261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03523328768901324</v>
+      </c>
+      <c r="D58">
+        <v>-0.04317689099942917</v>
+      </c>
+      <c r="E58">
+        <v>-0.1577048097841991</v>
+      </c>
+      <c r="F58">
+        <v>0.01104101329023398</v>
+      </c>
+      <c r="G58">
+        <v>-0.06820875695649027</v>
+      </c>
+      <c r="H58">
+        <v>-0.1363131543934672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1165330213073444</v>
+        <v>-0.1397099699992364</v>
       </c>
       <c r="C59">
-        <v>0.07903533589258516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08882664585414198</v>
+      </c>
+      <c r="D59">
+        <v>0.3601769037956256</v>
+      </c>
+      <c r="E59">
+        <v>-0.03175972299221291</v>
+      </c>
+      <c r="F59">
+        <v>0.0163157970107631</v>
+      </c>
+      <c r="G59">
+        <v>-0.0491724032981075</v>
+      </c>
+      <c r="H59">
+        <v>-0.00372624003144853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2006131873144671</v>
+        <v>-0.2304708988340655</v>
       </c>
       <c r="C60">
-        <v>0.1040292526451475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06800394274346011</v>
+      </c>
+      <c r="D60">
+        <v>-0.04109095181875951</v>
+      </c>
+      <c r="E60">
+        <v>0.08192015095620457</v>
+      </c>
+      <c r="F60">
+        <v>0.05932632235093654</v>
+      </c>
+      <c r="G60">
+        <v>0.01034718808330458</v>
+      </c>
+      <c r="H60">
+        <v>-0.1753005043145699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07997510414129778</v>
+        <v>-0.08770267190711895</v>
       </c>
       <c r="C61">
-        <v>0.05075838258488304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03352641327325583</v>
+      </c>
+      <c r="D61">
+        <v>-0.04525433850698754</v>
+      </c>
+      <c r="E61">
+        <v>0.004121365248034706</v>
+      </c>
+      <c r="F61">
+        <v>0.004557584244660757</v>
+      </c>
+      <c r="G61">
+        <v>0.005866659598708491</v>
+      </c>
+      <c r="H61">
+        <v>0.07389637611701982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1287838169918643</v>
+        <v>-0.1400427679472904</v>
       </c>
       <c r="C62">
-        <v>0.07018509415124538</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04345700561326776</v>
+      </c>
+      <c r="D62">
+        <v>-0.02814971218686606</v>
+      </c>
+      <c r="E62">
+        <v>0.0603141798584832</v>
+      </c>
+      <c r="F62">
+        <v>0.008797604739886878</v>
+      </c>
+      <c r="G62">
+        <v>0.03918548962695988</v>
+      </c>
+      <c r="H62">
+        <v>0.1416833400344188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05312733853904809</v>
+        <v>-0.05169016222062917</v>
       </c>
       <c r="C63">
-        <v>0.02624751674543056</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0131799532337904</v>
+      </c>
+      <c r="D63">
+        <v>-0.02232768028053928</v>
+      </c>
+      <c r="E63">
+        <v>-0.05279911698118676</v>
+      </c>
+      <c r="F63">
+        <v>-0.004989091103283062</v>
+      </c>
+      <c r="G63">
+        <v>0.03699056009088437</v>
+      </c>
+      <c r="H63">
+        <v>0.07014306476450044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1088528135537263</v>
+        <v>-0.1108306772884707</v>
       </c>
       <c r="C64">
-        <v>0.02885023616180816</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.005029069469832869</v>
+      </c>
+      <c r="D64">
+        <v>-0.04116077272938939</v>
+      </c>
+      <c r="E64">
+        <v>-0.03388364239730041</v>
+      </c>
+      <c r="F64">
+        <v>0.04746207281223644</v>
+      </c>
+      <c r="G64">
+        <v>0.04935625297666562</v>
+      </c>
+      <c r="H64">
+        <v>0.0724761611235657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1202145405466276</v>
+        <v>-0.1263538210907353</v>
       </c>
       <c r="C65">
-        <v>0.06099098645995441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03739090781076111</v>
+      </c>
+      <c r="D65">
+        <v>-0.004007590868775134</v>
+      </c>
+      <c r="E65">
+        <v>-0.0005355041510533376</v>
+      </c>
+      <c r="F65">
+        <v>0.06692236774573339</v>
+      </c>
+      <c r="G65">
+        <v>0.05376884266788164</v>
+      </c>
+      <c r="H65">
+        <v>-0.0889012799239496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1449582850436558</v>
+        <v>-0.1561082456637419</v>
       </c>
       <c r="C66">
-        <v>0.0785815303320279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04486306685152018</v>
+      </c>
+      <c r="D66">
+        <v>-0.1009866611375145</v>
+      </c>
+      <c r="E66">
+        <v>0.03254409125227032</v>
+      </c>
+      <c r="F66">
+        <v>0.01358021163221197</v>
+      </c>
+      <c r="G66">
+        <v>0.0512447718611838</v>
+      </c>
+      <c r="H66">
+        <v>0.149661650464002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07353021117727192</v>
+        <v>-0.08229387061262219</v>
       </c>
       <c r="C67">
-        <v>0.01607130124373963</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003846986845408698</v>
+      </c>
+      <c r="D67">
+        <v>-0.02957066381717567</v>
+      </c>
+      <c r="E67">
+        <v>-0.02328507142851446</v>
+      </c>
+      <c r="F67">
+        <v>0.01160040372566344</v>
+      </c>
+      <c r="G67">
+        <v>-0.008683345811607412</v>
+      </c>
+      <c r="H67">
+        <v>0.02612384286329007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05949136339049174</v>
+        <v>-0.06188289619684802</v>
       </c>
       <c r="C68">
-        <v>0.04986913080011671</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05871726428681391</v>
+      </c>
+      <c r="D68">
+        <v>0.2658237222094169</v>
+      </c>
+      <c r="E68">
+        <v>-0.04396864023658367</v>
+      </c>
+      <c r="F68">
+        <v>0.01773235607681519</v>
+      </c>
+      <c r="G68">
+        <v>-0.01645401304792017</v>
+      </c>
+      <c r="H68">
+        <v>0.01354812314436659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05217394454148939</v>
+        <v>-0.05257784617396311</v>
       </c>
       <c r="C69">
-        <v>0.019763293872508</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.005383836418327418</v>
+      </c>
+      <c r="D69">
+        <v>-0.01830254851962525</v>
+      </c>
+      <c r="E69">
+        <v>-0.02346983192007085</v>
+      </c>
+      <c r="F69">
+        <v>-0.00375855586894977</v>
+      </c>
+      <c r="G69">
+        <v>-0.01217839239126232</v>
+      </c>
+      <c r="H69">
+        <v>0.05448506973457481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005066491493926969</v>
+        <v>-0.02639913458614606</v>
       </c>
       <c r="C70">
-        <v>-0.004510100926402205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0004631645845551743</v>
+      </c>
+      <c r="D70">
+        <v>-0.0005826681301094461</v>
+      </c>
+      <c r="E70">
+        <v>0.02615777551804212</v>
+      </c>
+      <c r="F70">
+        <v>0.02721094474227745</v>
+      </c>
+      <c r="G70">
+        <v>-0.02439569173734927</v>
+      </c>
+      <c r="H70">
+        <v>-0.05382241541257633</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06095067972724855</v>
+        <v>-0.0652096660995766</v>
       </c>
       <c r="C71">
-        <v>0.0496730405311709</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.06057922877630616</v>
+      </c>
+      <c r="D71">
+        <v>0.2933886251201576</v>
+      </c>
+      <c r="E71">
+        <v>-0.03729376769676793</v>
+      </c>
+      <c r="F71">
+        <v>0.05090864975601635</v>
+      </c>
+      <c r="G71">
+        <v>-0.003005516491485189</v>
+      </c>
+      <c r="H71">
+        <v>0.02160014915192048</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1396701699964927</v>
+        <v>-0.1518121761418373</v>
       </c>
       <c r="C72">
-        <v>0.06537310040477388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03835310431273467</v>
+      </c>
+      <c r="D72">
+        <v>0.00872373552352229</v>
+      </c>
+      <c r="E72">
+        <v>0.100638938447113</v>
+      </c>
+      <c r="F72">
+        <v>-0.1631976804901112</v>
+      </c>
+      <c r="G72">
+        <v>0.1162645600764516</v>
+      </c>
+      <c r="H72">
+        <v>0.01816542316400495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2643733167845031</v>
+        <v>-0.2850828293192755</v>
       </c>
       <c r="C73">
-        <v>0.1156890134944661</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05235679996511876</v>
+      </c>
+      <c r="D73">
+        <v>-0.1011642717156166</v>
+      </c>
+      <c r="E73">
+        <v>0.2112191071545745</v>
+      </c>
+      <c r="F73">
+        <v>0.09960995961976248</v>
+      </c>
+      <c r="G73">
+        <v>-0.2199949260625473</v>
+      </c>
+      <c r="H73">
+        <v>-0.5137094056648085</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07944917908300368</v>
+        <v>-0.09126787377044168</v>
       </c>
       <c r="C74">
-        <v>0.07921457996866764</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05908283705970604</v>
+      </c>
+      <c r="D74">
+        <v>-0.03089735634523536</v>
+      </c>
+      <c r="E74">
+        <v>0.008756112991575304</v>
+      </c>
+      <c r="F74">
+        <v>-0.01331652004287687</v>
+      </c>
+      <c r="G74">
+        <v>-0.0280270408671974</v>
+      </c>
+      <c r="H74">
+        <v>0.1205359409702644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0950453910328176</v>
+        <v>-0.1010288176043253</v>
       </c>
       <c r="C75">
-        <v>0.05422037410229171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02722703044899863</v>
+      </c>
+      <c r="D75">
+        <v>-0.01281639008119295</v>
+      </c>
+      <c r="E75">
+        <v>0.000683358124346865</v>
+      </c>
+      <c r="F75">
+        <v>0.03862572371059345</v>
+      </c>
+      <c r="G75">
+        <v>-0.009073588777819445</v>
+      </c>
+      <c r="H75">
+        <v>0.108285578426949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1285108194246573</v>
+        <v>-0.1383684367731632</v>
       </c>
       <c r="C76">
-        <v>0.08557903945941366</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05605759891097355</v>
+      </c>
+      <c r="D76">
+        <v>-0.05340598226080391</v>
+      </c>
+      <c r="E76">
+        <v>-0.02279057962710404</v>
+      </c>
+      <c r="F76">
+        <v>0.04550573059034557</v>
+      </c>
+      <c r="G76">
+        <v>0.008727544254372414</v>
+      </c>
+      <c r="H76">
+        <v>0.1439318920866516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1195668808917522</v>
+        <v>-0.1138055424699121</v>
       </c>
       <c r="C77">
-        <v>0.02538605094886763</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.00295283991853114</v>
+      </c>
+      <c r="D77">
+        <v>-0.01485214844345142</v>
+      </c>
+      <c r="E77">
+        <v>-0.001835195878119625</v>
+      </c>
+      <c r="F77">
+        <v>0.1638057328132004</v>
+      </c>
+      <c r="G77">
+        <v>0.8726154578936711</v>
+      </c>
+      <c r="H77">
+        <v>-0.253603334334457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0947972436853395</v>
+        <v>-0.1312277189207433</v>
       </c>
       <c r="C78">
-        <v>0.04118904618593938</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03186718357541484</v>
+      </c>
+      <c r="D78">
+        <v>-0.09229006272597953</v>
+      </c>
+      <c r="E78">
+        <v>-0.05821420845520581</v>
+      </c>
+      <c r="F78">
+        <v>0.02834758095447265</v>
+      </c>
+      <c r="G78">
+        <v>0.04114728124110971</v>
+      </c>
+      <c r="H78">
+        <v>-0.0680704959476696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1467206084171286</v>
+        <v>-0.1528199073645517</v>
       </c>
       <c r="C79">
-        <v>0.08372889547940256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04707951747174701</v>
+      </c>
+      <c r="D79">
+        <v>-0.02886333941748899</v>
+      </c>
+      <c r="E79">
+        <v>0.01413305561437955</v>
+      </c>
+      <c r="F79">
+        <v>0.009387796092977723</v>
+      </c>
+      <c r="G79">
+        <v>-0.01445362675695216</v>
+      </c>
+      <c r="H79">
+        <v>0.1615941833767216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04227692394256864</v>
+        <v>-0.04139795733688967</v>
       </c>
       <c r="C80">
-        <v>0.01506098969377295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005589356716288891</v>
+      </c>
+      <c r="D80">
+        <v>-0.02240423181998756</v>
+      </c>
+      <c r="E80">
+        <v>0.009485511852084207</v>
+      </c>
+      <c r="F80">
+        <v>-0.01638997311423116</v>
+      </c>
+      <c r="G80">
+        <v>-0.0351828699507088</v>
+      </c>
+      <c r="H80">
+        <v>0.04630367731036152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1174055730070035</v>
+        <v>-0.1213507412133678</v>
       </c>
       <c r="C81">
-        <v>0.06637234819448484</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03641183411838463</v>
+      </c>
+      <c r="D81">
+        <v>-0.0267524586631802</v>
+      </c>
+      <c r="E81">
+        <v>-0.01415459953672188</v>
+      </c>
+      <c r="F81">
+        <v>0.02016611351343682</v>
+      </c>
+      <c r="G81">
+        <v>-0.03107986266578495</v>
+      </c>
+      <c r="H81">
+        <v>0.1777553206462778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1271165408725305</v>
+        <v>-0.129132646603205</v>
       </c>
       <c r="C82">
-        <v>0.0797038656403133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0479558075907176</v>
+      </c>
+      <c r="D82">
+        <v>-0.03033613175885443</v>
+      </c>
+      <c r="E82">
+        <v>0.01482923281641861</v>
+      </c>
+      <c r="F82">
+        <v>0.05387183264294124</v>
+      </c>
+      <c r="G82">
+        <v>-0.02711658515591467</v>
+      </c>
+      <c r="H82">
+        <v>0.1730980983986512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07823144006674336</v>
+        <v>-0.08693863650509821</v>
       </c>
       <c r="C83">
-        <v>-0.001686448368388034</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.0188894665845592</v>
+      </c>
+      <c r="D83">
+        <v>-0.04292508325835712</v>
+      </c>
+      <c r="E83">
+        <v>-0.01255531216602863</v>
+      </c>
+      <c r="F83">
+        <v>0.06697652314541776</v>
+      </c>
+      <c r="G83">
+        <v>-0.09938887914918933</v>
+      </c>
+      <c r="H83">
+        <v>-0.04986184534884013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02929025219681163</v>
+        <v>-0.04003479864383089</v>
       </c>
       <c r="C84">
-        <v>0.02537995103333592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02034101456977029</v>
+      </c>
+      <c r="D84">
+        <v>-0.03081026203234874</v>
+      </c>
+      <c r="E84">
+        <v>-0.03025739570044008</v>
+      </c>
+      <c r="F84">
+        <v>-0.04878495346289802</v>
+      </c>
+      <c r="G84">
+        <v>-0.05527884121193406</v>
+      </c>
+      <c r="H84">
+        <v>0.03227892884970047</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1183703756762593</v>
+        <v>-0.1192216813631438</v>
       </c>
       <c r="C85">
-        <v>0.06169296946068018</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03039417235299594</v>
+      </c>
+      <c r="D85">
+        <v>-0.02956574671283069</v>
+      </c>
+      <c r="E85">
+        <v>-0.01572275231319077</v>
+      </c>
+      <c r="F85">
+        <v>0.04095224730216607</v>
+      </c>
+      <c r="G85">
+        <v>-0.006161201331476387</v>
+      </c>
+      <c r="H85">
+        <v>0.1395890904232285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05063251912967694</v>
+        <v>-0.05681497070562683</v>
       </c>
       <c r="C86">
-        <v>0.03099245810951998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01910145139586709</v>
+      </c>
+      <c r="D86">
+        <v>-0.02310033722038048</v>
+      </c>
+      <c r="E86">
+        <v>-0.04809440697971316</v>
+      </c>
+      <c r="F86">
+        <v>0.02999713486026979</v>
+      </c>
+      <c r="G86">
+        <v>-0.005985617613109391</v>
+      </c>
+      <c r="H86">
+        <v>0.02305228953534579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1205311800402262</v>
+        <v>-0.122705696007088</v>
       </c>
       <c r="C87">
-        <v>0.07027471568998121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03405949568828253</v>
+      </c>
+      <c r="D87">
+        <v>-0.07690198912751769</v>
+      </c>
+      <c r="E87">
+        <v>-0.01713709659015098</v>
+      </c>
+      <c r="F87">
+        <v>0.003194691563147498</v>
+      </c>
+      <c r="G87">
+        <v>0.1034692856113336</v>
+      </c>
+      <c r="H87">
+        <v>-0.0166028135497122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05322970272642225</v>
+        <v>-0.05958635447160043</v>
       </c>
       <c r="C88">
-        <v>0.03154732520926867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01972849153209687</v>
+      </c>
+      <c r="D88">
+        <v>-0.02715269795299017</v>
+      </c>
+      <c r="E88">
+        <v>-0.01720997125632365</v>
+      </c>
+      <c r="F88">
+        <v>0.006085769496636245</v>
+      </c>
+      <c r="G88">
+        <v>0.01536644771655028</v>
+      </c>
+      <c r="H88">
+        <v>0.06261756499861378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08347185387405312</v>
+        <v>-0.09744503658131014</v>
       </c>
       <c r="C89">
-        <v>0.06634855436454848</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0799285512750855</v>
+      </c>
+      <c r="D89">
+        <v>0.3361798280797322</v>
+      </c>
+      <c r="E89">
+        <v>-0.07325286353438035</v>
+      </c>
+      <c r="F89">
+        <v>0.08283479230066509</v>
+      </c>
+      <c r="G89">
+        <v>-0.023066792287788</v>
+      </c>
+      <c r="H89">
+        <v>0.01221529434707795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07279117200724458</v>
+        <v>-0.08204350826929645</v>
       </c>
       <c r="C90">
-        <v>0.05864082623078896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06872632373120156</v>
+      </c>
+      <c r="D90">
+        <v>0.3073793726820096</v>
+      </c>
+      <c r="E90">
+        <v>-0.06166453414452681</v>
+      </c>
+      <c r="F90">
+        <v>0.01557509394323023</v>
+      </c>
+      <c r="G90">
+        <v>-0.003977351355992256</v>
+      </c>
+      <c r="H90">
+        <v>0.01797619315561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08417432813455181</v>
+        <v>-0.0890878063104882</v>
       </c>
       <c r="C91">
-        <v>0.05516214981967669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03305796371784864</v>
+      </c>
+      <c r="D91">
+        <v>-0.03158097839501729</v>
+      </c>
+      <c r="E91">
+        <v>-0.008843278558984754</v>
+      </c>
+      <c r="F91">
+        <v>0.005198432734900898</v>
+      </c>
+      <c r="G91">
+        <v>-0.04490964325622201</v>
+      </c>
+      <c r="H91">
+        <v>0.07055910653626739</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07915344785566146</v>
+        <v>-0.08693418200016371</v>
       </c>
       <c r="C92">
-        <v>0.07609467953913612</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08601997635500916</v>
+      </c>
+      <c r="D92">
+        <v>0.3422994809933116</v>
+      </c>
+      <c r="E92">
+        <v>-0.05199318237296766</v>
+      </c>
+      <c r="F92">
+        <v>0.03715806711469458</v>
+      </c>
+      <c r="G92">
+        <v>0.001895788912142743</v>
+      </c>
+      <c r="H92">
+        <v>0.01765103186156673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06540211981462626</v>
+        <v>-0.07984755470346225</v>
       </c>
       <c r="C93">
-        <v>0.06339351495281163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07907518604072351</v>
+      </c>
+      <c r="D93">
+        <v>0.3056026400588447</v>
+      </c>
+      <c r="E93">
+        <v>-0.03724219792250286</v>
+      </c>
+      <c r="F93">
+        <v>0.05124725993267477</v>
+      </c>
+      <c r="G93">
+        <v>0.006651141628984588</v>
+      </c>
+      <c r="H93">
+        <v>-0.006064622764288733</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1334857976111044</v>
+        <v>-0.1275468937418175</v>
       </c>
       <c r="C94">
-        <v>0.05944815240311668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02066366750339024</v>
+      </c>
+      <c r="D94">
+        <v>-0.04758176793007138</v>
+      </c>
+      <c r="E94">
+        <v>0.01648775745425176</v>
+      </c>
+      <c r="F94">
+        <v>0.02453371262474835</v>
+      </c>
+      <c r="G94">
+        <v>-0.03443597982261821</v>
+      </c>
+      <c r="H94">
+        <v>0.1103478202419729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1182754032620438</v>
+        <v>-0.1275760553381465</v>
       </c>
       <c r="C95">
-        <v>0.03949168887515782</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009819008964342591</v>
+      </c>
+      <c r="D95">
+        <v>-0.05684690257978629</v>
+      </c>
+      <c r="E95">
+        <v>0.0006231346033303921</v>
+      </c>
+      <c r="F95">
+        <v>0.04133203057804214</v>
+      </c>
+      <c r="G95">
+        <v>-0.0207014704791995</v>
+      </c>
+      <c r="H95">
+        <v>-0.02604737150938516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2031687588900218</v>
+        <v>-0.2124778273168298</v>
       </c>
       <c r="C97">
-        <v>0.04902990788365843</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01144224390689718</v>
+      </c>
+      <c r="D97">
+        <v>0.0905166286439217</v>
+      </c>
+      <c r="E97">
+        <v>0.2145694294807689</v>
+      </c>
+      <c r="F97">
+        <v>-0.8930271689562016</v>
+      </c>
+      <c r="G97">
+        <v>0.1064768037749233</v>
+      </c>
+      <c r="H97">
+        <v>-0.02258647548308899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2449455170142427</v>
+        <v>-0.2717789070224057</v>
       </c>
       <c r="C98">
-        <v>0.08638478333777744</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03706156515924755</v>
+      </c>
+      <c r="D98">
+        <v>-0.06579343991078664</v>
+      </c>
+      <c r="E98">
+        <v>0.1513246211673303</v>
+      </c>
+      <c r="F98">
+        <v>0.06187832009282948</v>
+      </c>
+      <c r="G98">
+        <v>-0.2834172985294856</v>
+      </c>
+      <c r="H98">
+        <v>-0.2397210428963246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4639679811848106</v>
+        <v>-0.2869990014227941</v>
       </c>
       <c r="C99">
-        <v>-0.8713700386923163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9355834978324518</v>
+      </c>
+      <c r="D99">
+        <v>0.1308160533645213</v>
+      </c>
+      <c r="E99">
+        <v>-0.05814993296411766</v>
+      </c>
+      <c r="F99">
+        <v>0.04440178279156755</v>
+      </c>
+      <c r="G99">
+        <v>-0.01293683914423827</v>
+      </c>
+      <c r="H99">
+        <v>0.0599104177857984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04122019610560142</v>
+        <v>-0.04822541726077671</v>
       </c>
       <c r="C101">
-        <v>0.03159475161849356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02462264978207467</v>
+      </c>
+      <c r="D101">
+        <v>-0.00558085202284421</v>
+      </c>
+      <c r="E101">
+        <v>-0.04754311803262566</v>
+      </c>
+      <c r="F101">
+        <v>0.005105119978520516</v>
+      </c>
+      <c r="G101">
+        <v>0.0002502474421595053</v>
+      </c>
+      <c r="H101">
+        <v>0.08203226557812038</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
